--- a/00_Dokumentation/S-Diagramm.xlsx
+++ b/00_Dokumentation/S-Diagramm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyder_j\OneDrive - Rondo\Documents\GitHub\Pflanzenwagen\00_Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\313\Documents\GitHub\Pflanzenwagen\00_Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F017648E-48FF-4BC2-8936-4AD1E67809C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7E2C4B-C47C-4E41-AD8B-E405FBDBFC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S-Diagramm" sheetId="1" r:id="rId1"/>
@@ -675,7 +675,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -777,13 +777,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,99 +899,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1060,7 +1056,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.625</c:v>
+                  <c:v>0.72499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1193,7 +1189,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.8125</c:v>
+                  <c:v>0.61250000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,7 +1201,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.88571428571428568</c:v>
+                  <c:v>0.77142857142857146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3733,7 +3729,7 @@
   <dimension ref="B3:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3753,32 +3749,32 @@
   <sheetData>
     <row r="3" spans="2:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="53" t="s">
+      <c r="G4" s="66"/>
+      <c r="H4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="56"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="2:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
@@ -3819,11 +3815,11 @@
         <v>20</v>
       </c>
       <c r="F6" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" s="19">
         <f t="shared" ref="G6:G10" si="0">F6*C6</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H6" s="21">
         <v>3</v>
@@ -3862,11 +3858,11 @@
         <v>12</v>
       </c>
       <c r="H7" s="21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J7" s="24">
         <v>4</v>
@@ -3985,11 +3981,11 @@
       </c>
     </row>
     <row r="11" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="26">
         <f>SUM(E6:E10)</f>
         <v>80</v>
@@ -3997,12 +3993,12 @@
       <c r="F11" s="27"/>
       <c r="G11" s="27">
         <f>SUM(G6:G10)</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28">
         <f>SUM(I6:I10)</f>
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="29">
@@ -4011,24 +4007,24 @@
       </c>
     </row>
     <row r="12" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="37">
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="35">
         <f>E11/E11</f>
         <v>1</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31">
         <f>G11/E11</f>
-        <v>0.625</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32">
         <f>I11/E11</f>
-        <v>0.8125</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="J12" s="33"/>
       <c r="K12" s="33">
@@ -4039,7 +4035,7 @@
     <row r="13" spans="2:11" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="35"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4049,51 +4045,49 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="35"/>
+      <c r="D14" s="34"/>
     </row>
-    <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="36"/>
-    </row>
+    <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="68" t="s">
+      <c r="E18" s="42"/>
+      <c r="F18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="66" t="s">
+      <c r="G18" s="40"/>
+      <c r="H18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="72" t="s">
+      <c r="I18" s="38"/>
+      <c r="J18" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="73"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="19" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="77"/>
-      <c r="C19" s="75"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="4" t="s">
         <v>6</v>
       </c>
@@ -4177,11 +4171,11 @@
         <v>16</v>
       </c>
       <c r="H21" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="23">
         <f>C21*H21</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J21" s="24">
         <v>4</v>
@@ -4192,11 +4186,11 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="26">
         <f>SUM(E20:E21)</f>
         <v>35</v>
@@ -4209,7 +4203,7 @@
       <c r="H22" s="28"/>
       <c r="I22" s="28">
         <f>SUM(I20:I21)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J22" s="29"/>
       <c r="K22" s="29">
@@ -4218,11 +4212,11 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="30">
         <f>E22/E22</f>
         <v>1</v>
@@ -4235,7 +4229,7 @@
       <c r="H23" s="32"/>
       <c r="I23" s="32">
         <f>I22/E22</f>
-        <v>0.88571428571428568</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="J23" s="33"/>
       <c r="K23" s="33">
@@ -4244,58 +4238,56 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="H4:I4"/>
@@ -4304,11 +4296,13 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -4319,12 +4313,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4551,15 +4542,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF041DBB-E34C-4026-B16D-371EC081549A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C51FE1-1C19-4626-8C52-582C3179E5E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="75002ad7-f0da-4057-ac05-b4b788ab7a75"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4584,17 +4586,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C51FE1-1C19-4626-8C52-582C3179E5E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF041DBB-E34C-4026-B16D-371EC081549A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="75002ad7-f0da-4057-ac05-b4b788ab7a75"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/00_Dokumentation/S-Diagramm.xlsx
+++ b/00_Dokumentation/S-Diagramm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\313\Documents\GitHub\Pflanzenwagen\00_Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janik\Documents\GitHub\Pflanzenwagen\00_Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7E2C4B-C47C-4E41-AD8B-E405FBDBFC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2032677-B3F9-4154-8EB5-52E94489FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S-Diagramm" sheetId="1" r:id="rId1"/>
@@ -780,6 +780,87 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -818,87 +899,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1739,7 +1739,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2431,10 +2431,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
+          <a:srgbClr val="92D050">
             <a:alpha val="30000"/>
-          </a:schemeClr>
+          </a:srgbClr>
         </a:solidFill>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
@@ -3728,7 +3727,7 @@
   </sheetPr>
   <dimension ref="B3:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -3749,32 +3748,32 @@
   <sheetData>
     <row r="3" spans="2:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="55" t="s">
+      <c r="G4" s="62"/>
+      <c r="H4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="s">
+      <c r="I4" s="52"/>
+      <c r="J4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="2:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="60"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
@@ -3981,11 +3980,11 @@
       </c>
     </row>
     <row r="11" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="26">
         <f>SUM(E6:E10)</f>
         <v>80</v>
@@ -4007,11 +4006,11 @@
       </c>
     </row>
     <row r="12" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="35">
         <f>E11/E11</f>
         <v>1</v>
@@ -4050,44 +4049,44 @@
     <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="39" t="s">
+      <c r="E18" s="69"/>
+      <c r="F18" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="37" t="s">
+      <c r="G18" s="67"/>
+      <c r="H18" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="43" t="s">
+      <c r="I18" s="65"/>
+      <c r="J18" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="44"/>
+      <c r="K18" s="71"/>
     </row>
     <row r="19" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="4" t="s">
         <v>6</v>
       </c>
@@ -4186,11 +4185,11 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="26">
         <f>SUM(E20:E21)</f>
         <v>35</v>
@@ -4212,11 +4211,11 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="30">
         <f>E22/E22</f>
         <v>1</v>
@@ -4238,56 +4237,58 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="H4:I4"/>
@@ -4296,13 +4297,11 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -4313,9 +4312,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4542,26 +4544,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C51FE1-1C19-4626-8C52-582C3179E5E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF041DBB-E34C-4026-B16D-371EC081549A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="75002ad7-f0da-4057-ac05-b4b788ab7a75"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4586,9 +4577,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF041DBB-E34C-4026-B16D-371EC081549A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C51FE1-1C19-4626-8C52-582C3179E5E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="75002ad7-f0da-4057-ac05-b4b788ab7a75"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/00_Dokumentation/S-Diagramm.xlsx
+++ b/00_Dokumentation/S-Diagramm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\313\Documents\GitHub\Pflanzenwagen\00_Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Pflanzenwagen\00_Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7E2C4B-C47C-4E41-AD8B-E405FBDBFC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7586A675-A389-4F91-B94A-6FA253E77FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13740" yWindow="5250" windowWidth="22140" windowHeight="15120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S-Diagramm" sheetId="1" r:id="rId1"/>
@@ -780,6 +780,87 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -818,87 +899,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1739,7 +1739,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2271,8 +2271,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="760755" y="368658"/>
-          <a:ext cx="4268393" cy="1764811"/>
+          <a:off x="662568" y="321256"/>
+          <a:ext cx="3717492" cy="1537892"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2431,10 +2431,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
+          <a:srgbClr val="00B050">
             <a:alpha val="30000"/>
-          </a:schemeClr>
+          </a:srgbClr>
         </a:solidFill>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
@@ -3728,7 +3727,7 @@
   </sheetPr>
   <dimension ref="B3:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -3749,32 +3748,32 @@
   <sheetData>
     <row r="3" spans="2:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="55" t="s">
+      <c r="G4" s="62"/>
+      <c r="H4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="s">
+      <c r="I4" s="52"/>
+      <c r="J4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="2:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="60"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
@@ -3981,11 +3980,11 @@
       </c>
     </row>
     <row r="11" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="26">
         <f>SUM(E6:E10)</f>
         <v>80</v>
@@ -4007,11 +4006,11 @@
       </c>
     </row>
     <row r="12" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="35">
         <f>E11/E11</f>
         <v>1</v>
@@ -4050,44 +4049,44 @@
     <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="39" t="s">
+      <c r="E18" s="69"/>
+      <c r="F18" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="37" t="s">
+      <c r="G18" s="67"/>
+      <c r="H18" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="43" t="s">
+      <c r="I18" s="65"/>
+      <c r="J18" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="44"/>
+      <c r="K18" s="71"/>
     </row>
     <row r="19" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="4" t="s">
         <v>6</v>
       </c>
@@ -4186,11 +4185,11 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="26">
         <f>SUM(E20:E21)</f>
         <v>35</v>
@@ -4212,11 +4211,11 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="30">
         <f>E22/E22</f>
         <v>1</v>
@@ -4238,56 +4237,58 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="H4:I4"/>
@@ -4296,13 +4297,11 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -4313,9 +4312,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4542,26 +4544,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C51FE1-1C19-4626-8C52-582C3179E5E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF041DBB-E34C-4026-B16D-371EC081549A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="75002ad7-f0da-4057-ac05-b4b788ab7a75"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4586,9 +4577,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF041DBB-E34C-4026-B16D-371EC081549A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C51FE1-1C19-4626-8C52-582C3179E5E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="75002ad7-f0da-4057-ac05-b4b788ab7a75"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/00_Dokumentation/S-Diagramm.xlsx
+++ b/00_Dokumentation/S-Diagramm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Pflanzenwagen\00_Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\313\Documents\GitHub\Pflanzenwagen\00_Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7586A675-A389-4F91-B94A-6FA253E77FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039785A5-2C08-4212-B3C7-9FCBD5A91234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="5250" windowWidth="22140" windowHeight="15120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S-Diagramm" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Technische 
 Kriterien</t>
@@ -150,6 +150,9 @@
   <si>
     <t>Vorrichtung funktioniert auf Schotter</t>
   </si>
+  <si>
+    <t>Variante 4</t>
+  </si>
 </sst>
 </file>
 
@@ -189,7 +192,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +227,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -675,7 +684,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -780,6 +789,18 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -831,12 +852,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -882,12 +897,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -899,6 +908,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -983,42 +1022,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.17631497967752427"/>
-                  <c:y val="4.7007834164422054E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1400"/>
-                      <a:t>Variante 1 (grün)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-DEBF-42A6-9CD3-CCCD036AF116}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1026,16 +1029,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1045,7 +1039,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1109,49 +1103,13 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-DEBF-42A6-9CD3-CCCD036AF116}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.8166336254781962E-2"/>
-                  <c:y val="-3.6068874581849875E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                      <a:t>Variante 2 (blau)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-DEBF-42A6-9CD3-CCCD036AF116}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1159,16 +1117,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" baseline="0"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1178,7 +1127,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1192,6 +1141,7 @@
                   <c:v>0.61250000000000004</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -1201,13 +1151,14 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.77142857142857146</c:v>
+                  <c:v>0.68571428571428572</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-DEBF-42A6-9CD3-CCCD036AF116}"/>
             </c:ext>
@@ -1240,42 +1191,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.7601319129822992E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1400"/>
-                      <a:t>Variante 3 (gelb)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-DEBF-42A6-9CD3-CCCD036AF116}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1283,16 +1198,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1302,7 +1208,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1316,6 +1222,7 @@
                   <c:v>0.71250000000000002</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -1328,12 +1235,89 @@
                   <c:v>0.7142857142857143</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DEBF-42A6-9CD3-CCCD036AF116}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Variante 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'S-Diagramm'!$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'S-Diagramm'!$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.88571428571428568</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-DEBF-42A6-9CD3-CCCD036AF116}"/>
+              <c16:uniqueId val="{00000002-B34C-4ACF-9047-23FD3753F373}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1345,6 +1329,28 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:yVal>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
@@ -1362,8 +1368,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1371,147 +1378,7 @@
         </c:dLbls>
         <c:axId val="75928320"/>
         <c:axId val="75930240"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>Variante 5</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575">
-                    <a:noFill/>
-                  </a:ln>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="diamond"/>
-                  <c:size val="15"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:ln>
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:prstDash val="solid"/>
-                    </a:ln>
-                  </c:spPr>
-                </c:marker>
-                <c:dLbls>
-                  <c:dLbl>
-                    <c:idx val="1"/>
-                    <c:layout>
-                      <c:manualLayout>
-                        <c:x val="4.1053099274636993E-3"/>
-                        <c:y val="4.17044442160369E-3"/>
-                      </c:manualLayout>
-                    </c:layout>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:r>
-                            <a:rPr lang="en-US" sz="1400"/>
-                            <a:t>Variante 5 (orange)</a:t>
-                          </a:r>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="1"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000009-DEBF-42A6-9CD3-CCCD036AF116}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="1400"/>
-                      </a:pPr>
-                      <a:endParaRPr lang="de-DE"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="0"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="1"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="0"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:xVal>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'S-Diagramm'!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#BEZUG!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'S-Diagramm'!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000A-DEBF-42A6-9CD3-CCCD036AF116}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="75928320"/>
@@ -1739,7 +1606,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1912,7 +1779,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6196853" cy="9155206"/>
+    <xdr:ext cx="6187109" cy="9144000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -2424,8 +2291,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5054763" y="366101"/>
-          <a:ext cx="1810100" cy="1758822"/>
+          <a:off x="4395446" y="318668"/>
+          <a:ext cx="1574001" cy="1530797"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2486,8 +2353,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="19830" y="101623"/>
-          <a:ext cx="5964161" cy="5334372"/>
+          <a:off x="19799" y="101498"/>
+          <a:ext cx="5954783" cy="5327843"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="6303509" cy="5041446"/>
         </a:xfrm>
@@ -3725,10 +3592,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:K26"/>
+  <dimension ref="B3:M26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3743,37 +3610,43 @@
     <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="55" t="s">
+    <row r="3" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61" t="s">
+      <c r="E4" s="62"/>
+      <c r="F4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="51" t="s">
+      <c r="G4" s="64"/>
+      <c r="H4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="54"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="77"/>
     </row>
-    <row r="5" spans="2:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56"/>
-      <c r="C5" s="58"/>
+    <row r="5" spans="2:13" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="58"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
@@ -3798,8 +3671,14 @@
       <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="L5" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="79" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
@@ -3834,8 +3713,15 @@
         <f t="shared" ref="K6:K10" si="2">C6*J6</f>
         <v>16</v>
       </c>
+      <c r="L6" s="80">
+        <v>5</v>
+      </c>
+      <c r="M6" s="81">
+        <f>C6*L6</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
@@ -3870,8 +3756,15 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="L7" s="80">
+        <v>5</v>
+      </c>
+      <c r="M7" s="81">
+        <f>C7*L7</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
@@ -3906,8 +3799,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="L8" s="80">
+        <v>3</v>
+      </c>
+      <c r="M8" s="81">
+        <f>C8*L8</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
@@ -3942,8 +3842,15 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
+      <c r="L9" s="80">
+        <v>2</v>
+      </c>
+      <c r="M9" s="81">
+        <f>C9*L9</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
@@ -3978,13 +3885,20 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
+      <c r="L10" s="80">
+        <v>4</v>
+      </c>
+      <c r="M10" s="81">
+        <f>C10*L10</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
+    <row r="11" spans="2:13" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="26">
         <f>SUM(E6:E10)</f>
         <v>80</v>
@@ -4004,13 +3918,18 @@
         <f>SUM(K6:K10)</f>
         <v>57</v>
       </c>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82">
+        <f>SUM(M6:M10)</f>
+        <v>64</v>
+      </c>
     </row>
-    <row r="12" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+    <row r="12" spans="2:13" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="35">
         <f>E11/E11</f>
         <v>1</v>
@@ -4030,8 +3949,13 @@
         <f>K11/E11</f>
         <v>0.71250000000000002</v>
       </c>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83">
+        <f>M11/E11</f>
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="13" spans="2:11" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="34"/>
@@ -4043,48 +3967,52 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="34"/>
     </row>
-    <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
+    <row r="15" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:13" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
     </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="74" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="66" t="s">
+      <c r="E18" s="71"/>
+      <c r="F18" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="64" t="s">
+      <c r="G18" s="69"/>
+      <c r="H18" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="70" t="s">
+      <c r="I18" s="67"/>
+      <c r="J18" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="71"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="85"/>
     </row>
-    <row r="19" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="75"/>
       <c r="C19" s="73"/>
       <c r="D19" s="4" t="s">
@@ -4111,8 +4039,14 @@
       <c r="K19" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="L19" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="79" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>12</v>
       </c>
@@ -4134,11 +4068,11 @@
         <v>12</v>
       </c>
       <c r="H20" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20" s="22">
         <f>C20*H20</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J20" s="24">
         <v>3</v>
@@ -4147,8 +4081,15 @@
         <f>C20*J20</f>
         <v>9</v>
       </c>
+      <c r="L20" s="80">
+        <v>5</v>
+      </c>
+      <c r="M20" s="81">
+        <f>C20*L20</f>
+        <v>15</v>
+      </c>
     </row>
-    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
@@ -4183,13 +4124,20 @@
         <f>C21*J21</f>
         <v>16</v>
       </c>
+      <c r="L21" s="80">
+        <v>4</v>
+      </c>
+      <c r="M21" s="81">
+        <f>C21*L21</f>
+        <v>16</v>
+      </c>
     </row>
-    <row r="22" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="42" t="s">
+    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="26">
         <f>SUM(E20:E21)</f>
         <v>35</v>
@@ -4202,20 +4150,25 @@
       <c r="H22" s="28"/>
       <c r="I22" s="28">
         <f>SUM(I20:I21)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J22" s="29"/>
       <c r="K22" s="29">
         <f>SUM(K20:K21)</f>
         <v>25</v>
       </c>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82">
+        <f>SUM(M20:M21)</f>
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="30">
         <f>E22/E22</f>
         <v>1</v>
@@ -4228,67 +4181,78 @@
       <c r="H23" s="32"/>
       <c r="I23" s="32">
         <f>I22/E22</f>
-        <v>0.77142857142857146</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="J23" s="33"/>
       <c r="K23" s="33">
         <f>K22/E22</f>
         <v>0.7142857142857143</v>
       </c>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83">
+        <f>M22/E22</f>
+        <v>0.88571428571428568</v>
+      </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B17:K17"/>
+  <mergeCells count="22">
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="H4:I4"/>
@@ -4297,11 +4261,7 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:K17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
